--- a/biology/Zoologie/Bolinus_brandaris/Bolinus_brandaris.xlsx
+++ b/biology/Zoologie/Bolinus_brandaris/Bolinus_brandaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le murex épineux ou murex tinctorial (Bolinus brandaris) est une espèce de mollusques gastéropodes appartenant à la famille des Muricidae. 
-Ce coquillage sécrète un mucus qui fournissait « la pourpre des anciens »[2] ou pourpre de Tyr fabriquée par les Phéniciens. De nos jours, on le pêche pour sa chair comestible.  
+Ce coquillage sécrète un mucus qui fournissait « la pourpre des anciens » ou pourpre de Tyr fabriquée par les Phéniciens. De nos jours, on le pêche pour sa chair comestible.  
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Longueur : 9 cm.
 Ces mollusques sont caractérisés par des côtes armées de fortes extensions calcaires.
@@ -547,7 +561,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve cette espèce en Méditerranée et sur les côtes du nord-ouest de l’Afrique, entre 5 et 80 m de profondeur.
 </t>
@@ -580,17 +596,56 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste des variétés
-Selon World Register of Marine Species                               (27 oct. 2010)[3] :
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (27 oct. 2010) :
 variété Bolinus brandaris var. adunca Coen, 1933
 variété Bolinus brandaris var. bicaudata Coen, 1933
 variété Bolinus brandaris var. cingulata Coen, 1933
 variété Bolinus brandaris var. delicatula Coen, 1925
 variété Bolinus brandaris var. ecaudata Coen, 1933
 variété Bolinus brandaris var. fragilis Coen, 1933
-variété Bolinus brandaris var. polii Monterosato in Coen, 1933
-Liste des synonymes
-Aranea cinera Perry, 1811 (synonyme), Haustellum clavatum Schumacher, 1817 (synonyme), Murex brandariformis Locard, 1886, Murex brandaris Linnaeus, 1758 (basionyme), Murex clavaherculis Roding, 1798 (synonyme), Murex coronatus Risso, 1826 (synonyme), Murex trispinosus Locard, 1886, Murex tuberculatus Roding, 1798 (synonyme), Purpura fuliginosa Röding, 1798[4], etc.
+variété Bolinus brandaris var. polii Monterosato in Coen, 1933</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bolinus_brandaris</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolinus_brandaris</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aranea cinera Perry, 1811 (synonyme), Haustellum clavatum Schumacher, 1817 (synonyme), Murex brandariformis Locard, 1886, Murex brandaris Linnaeus, 1758 (basionyme), Murex clavaherculis Roding, 1798 (synonyme), Murex coronatus Risso, 1826 (synonyme), Murex trispinosus Locard, 1886, Murex tuberculatus Roding, 1798 (synonyme), Purpura fuliginosa Röding, 1798, etc.
 </t>
         </is>
       </c>
